--- a/org.talend.mdm.webapp.browserecords/src/test/java/org/talend/mdm/webapp/browserecords/server/util/TestDownload.xlsx
+++ b/org.talend.mdm.webapp.browserecords/src/test/java/org/talend/mdm/webapp/browserecords/server/util/TestDownload.xlsx
@@ -50,7 +50,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>2</t>
+    <t>2,2"</t>
   </si>
   <si>
     <t>[7]|F33</t>
